--- a/biology/Histoire de la zoologie et de la botanique/Robert_Friedrich_Wilhelm_Mertens/Robert_Friedrich_Wilhelm_Mertens.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Friedrich_Wilhelm_Mertens/Robert_Friedrich_Wilhelm_Mertens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Friedrich Wilhelm Mertens est un zoologiste allemand, né le 1er décembre 1894 à Saint-Pétersbourg et mort le 23 août 1975 à Francfort-sur-le-Main.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Friedrich Wilhelm Mertens est le fils de Robert Mertens, prospère marchand de fourrure, et d’Eugenie née Brunst. Très tôt intéressé par les reptiles, son père l’encourage dans cette voie. Robert Mertens commence ses études au gymnasium de Saint-Pétersbourg mais il doit quitter la Russie à cause des événements révolutionnaires. Il part étudier en Allemagne pour y étudier la médecine et l'histoire naturelle. Il obtient son doctorat de médecine à l’université de Leipzig sous la direction de Carl Chun (1852-1914). Sa thèse est consacré aux variations géographiques dans le genre Lacerta.
 Mertens sert brièvement dans l’armée et devient assistant au Muséum Senckenberg de Francfort-sur-le-Main à partir de 1919. C’est alors Richard Sternfeld (1884-1943) qui a la charge de l’herpétologie, connu pour ses travaux sur la faune africaine et du Pacifique, mais celui-ci est renvoyé en 1920. Il se marie avec Karline Bergmann le 6 juin 1921, union dont il aura une fille.
